--- a/bots/crawl_ch/output/electronics_2022-07-15.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-15.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -1883,29 +1883,29 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>6761135</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>9.95/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1944,39 +1944,39 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6761135</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2015,17 +2015,17 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2530,131 +2530,131 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3494065</t>
+          <t>6508223</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli</t>
+          <t>satrap Venti WS Standventilator</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-venti-ws-standventilator/p/6508223</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2.49/1ST</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
+          <t>satrap Venti WS Standventilator 50% Aktion 29.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6508223</t>
+          <t>3494065</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>satrap Venti WS Standventilator</t>
+          <t>Varta Longlife Max Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-venti-ws-standventilator/p/6508223</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2.49/1ST</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>satrap Venti WS Standventilator 50% Aktion 29.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -2995,36 +2995,34 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3494909</t>
+          <t>6999781</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
+          <t>24ST</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3033,12 +3031,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3.95/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3048,7 +3046,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3058,17 +3056,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3139,92 +3137,114 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>3494909</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>Varta Electronics V23GA 1er Bli</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>3.95/1ST</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
+          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -3233,17 +3253,17 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3296,100 +3316,80 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6999781</t>
+          <t>6848736</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
+          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>24ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/sony-wf-c500b-in-ear-bluetooth-50-schwarz/p/6848736</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Sony</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>0.87/1ST</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz) 50% Aktion 39.95 Schweizer Franken statt 79.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>6999749</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>24ST</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3.98/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3428,34 +3428,34 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6848736</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz)</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/sony-wf-c500b-in-ear-bluetooth-50-schwarz/p/6848736</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -3465,12 +3465,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Sony</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -3479,60 +3479,58 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz) 50% Aktion 39.95 Schweizer Franken statt 79.95 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4358323</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1.66/1ST</t>
+          <t>3.98/1ST</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3542,7 +3540,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3557,90 +3555,110 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5750424</t>
+          <t>4358323</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>5750424</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>satrap Vento HT2 Reisehaartrockner</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3649,7 +3667,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3658,46 +3676,46 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
+          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3711,117 +3729,99 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3494131</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
         <v>3</v>
       </c>
-      <c r="F49" t="n">
-        <v>3.5</v>
-      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6999749</t>
+          <t>3494131</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
+          <t>Varta Longlife Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>24ST</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4532,50 +4532,48 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>5.95/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4585,7 +4583,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4600,134 +4598,136 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6867383</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Krups</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>349.50</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>5.95/1ST</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>6867383</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Krups Kaffeevollautomat EA815B</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Krups</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>2.16/1ST</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>349.50</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-15 07:02:48</t>
+          <t>2022-07-15 20:57:52</t>
         </is>
       </c>
     </row>
